--- a/ig/ch-lab-report/StructureDefinition-ChLab-observation-single-test.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ChLab-observation-single-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="657">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Single Test</t>
+    <t>CH LAB-Report Observation Results: Single Test</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile constrains the ChLabObservationResultsLaboratory profile to represent single test results for the  HL7 Swiss project. The profile enables only value[x] and component elements, hasMemer elemens are not allowed</t>
+    <t>This profile constrains the ChLabObservationResultsLaboratory profile to represent single test results for the  HL7 Swiss project. The profile enables only value[x] and component elements, hasMember elemens are not allowed</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -930,7 +930,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1388,6 +1388,16 @@
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Observation.value[x]:valueRange</t>
@@ -2025,6 +2035,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2387,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP120"/>
+  <dimension ref="A1:AP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11096,19 +11109,19 @@
         <v>85</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>439</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>428</v>
@@ -11169,39 +11182,39 @@
         <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>85</v>
@@ -11223,16 +11236,16 @@
         <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>428</v>
@@ -11296,7 +11309,7 @@
         <v>158</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
@@ -11305,10 +11318,10 @@
         <v>85</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>139</v>
+        <v>447</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
@@ -11319,13 +11332,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11344,19 +11357,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>428</v>
@@ -11417,28 +11430,28 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
@@ -11716,19 +11729,19 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>465</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>428</v>
@@ -11789,39 +11802,39 @@
         <v>96</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11840,19 +11853,19 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>285</v>
+        <v>468</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>427</v>
+        <v>471</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>428</v>
@@ -11880,11 +11893,13 @@
         <v>85</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>85</v>
@@ -11911,28 +11926,28 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>430</v>
+        <v>158</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
@@ -11940,9 +11955,11 @@
         <v>475</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
       </c>
@@ -11960,22 +11977,22 @@
         <v>85</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>285</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>85</v>
@@ -12000,13 +12017,11 @@
         <v>85</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12024,7 +12039,7 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -12033,7 +12048,7 @@
         <v>96</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>482</v>
+        <v>430</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>108</v>
@@ -12042,38 +12057,38 @@
         <v>85</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>139</v>
+        <v>432</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>483</v>
+        <v>433</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>485</v>
+        <v>85</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>85</v>
@@ -12088,16 +12103,16 @@
         <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12125,10 +12140,10 @@
         <v>343</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12146,16 +12161,16 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12164,31 +12179,31 @@
         <v>85</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>492</v>
+        <v>85</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>493</v>
+        <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>495</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>85</v>
+        <v>488</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12207,19 +12222,19 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>497</v>
+        <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12244,13 +12259,13 @@
         <v>85</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>85</v>
+        <v>493</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>85</v>
+        <v>494</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12268,7 +12283,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12286,27 +12301,27 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>85</v>
+        <v>495</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>85</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12317,7 +12332,7 @@
         <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>85</v>
@@ -12329,18 +12344,20 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>285</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
       </c>
@@ -12364,13 +12381,13 @@
         <v>85</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>508</v>
+        <v>85</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>509</v>
+        <v>85</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>510</v>
+        <v>85</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>85</v>
@@ -12388,13 +12405,13 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>85</v>
@@ -12406,27 +12423,27 @@
         <v>85</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>511</v>
+        <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>514</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12452,17 +12469,15 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>85</v>
       </c>
@@ -12486,11 +12501,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y84" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="Z84" t="s" s="2">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12508,7 +12525,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12526,27 +12543,27 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>85</v>
+        <v>514</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>85</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12569,18 +12586,20 @@
         <v>85</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>524</v>
+        <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
       </c>
@@ -12604,13 +12623,11 @@
         <v>85</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>85</v>
+        <v>523</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12628,7 +12645,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12646,27 +12663,27 @@
         <v>85</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>528</v>
+        <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>531</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12689,16 +12706,16 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12748,7 +12765,7 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12766,27 +12783,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12797,7 +12814,7 @@
         <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>85</v>
@@ -12809,20 +12826,18 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>85</v>
       </c>
@@ -12870,45 +12885,45 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>548</v>
-      </c>
       <c r="AN87" t="s" s="2">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>85</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12919,7 +12934,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>85</v>
@@ -12931,16 +12946,20 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>161</v>
+        <v>545</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>162</v>
+        <v>546</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
       </c>
@@ -12988,19 +13007,19 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>164</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>85</v>
+        <v>550</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13009,10 +13028,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>85</v>
+        <v>551</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>165</v>
+        <v>552</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13023,21 +13042,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>85</v>
@@ -13049,17 +13068,15 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>85</v>
@@ -13108,19 +13125,19 @@
         <v>85</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>85</v>
@@ -13143,14 +13160,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>553</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13163,26 +13180,24 @@
         <v>85</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>554</v>
+        <v>169</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>555</v>
+        <v>170</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O90" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>85</v>
       </c>
@@ -13230,7 +13245,7 @@
         <v>85</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>556</v>
+        <v>173</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
@@ -13254,7 +13269,7 @@
         <v>85</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>85</v>
@@ -13265,42 +13280,46 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>85</v>
+        <v>556</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="L91" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+      <c r="N91" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>85</v>
       </c>
@@ -13348,19 +13367,19 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>561</v>
+        <v>85</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>85</v>
@@ -13369,10 +13388,10 @@
         <v>85</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>562</v>
+        <v>85</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>563</v>
+        <v>139</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>85</v>
@@ -13383,10 +13402,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13409,13 +13428,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13466,16 +13485,16 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>108</v>
@@ -13487,10 +13506,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13501,10 +13520,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13527,20 +13546,16 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>285</v>
+        <v>561</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="M93" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>572</v>
-      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>85</v>
       </c>
@@ -13564,13 +13579,13 @@
         <v>85</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>573</v>
+        <v>85</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>574</v>
+        <v>85</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>85</v>
@@ -13588,7 +13603,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13597,7 +13612,7 @@
         <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>85</v>
+        <v>564</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>108</v>
@@ -13606,13 +13621,13 @@
         <v>85</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>575</v>
+        <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13623,10 +13638,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13637,7 +13652,7 @@
         <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>85</v>
@@ -13652,16 +13667,16 @@
         <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13686,13 +13701,13 @@
         <v>85</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>508</v>
+        <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13710,13 +13725,13 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>85</v>
@@ -13728,13 +13743,13 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13745,10 +13760,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13759,7 +13774,7 @@
         <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>85</v>
@@ -13771,17 +13786,19 @@
         <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>585</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>583</v>
+      </c>
       <c r="O95" t="s" s="2">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
@@ -13806,13 +13823,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>85</v>
+        <v>511</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>85</v>
+        <v>585</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>85</v>
+        <v>586</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13830,13 +13847,13 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>85</v>
@@ -13848,13 +13865,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>85</v>
+        <v>578</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>85</v>
+        <v>579</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>589</v>
+        <v>497</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13865,10 +13882,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13891,16 +13908,18 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>161</v>
+        <v>588</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M96" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>85</v>
       </c>
@@ -13948,7 +13967,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -13969,10 +13988,10 @@
         <v>85</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>562</v>
+        <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -13983,10 +14002,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13997,7 +14016,7 @@
         <v>83</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>85</v>
@@ -14006,20 +14025,18 @@
         <v>85</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L97" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>598</v>
-      </c>
+      <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>85</v>
@@ -14068,13 +14085,13 @@
         <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>85</v>
@@ -14089,10 +14106,10 @@
         <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14103,10 +14120,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14117,7 +14134,7 @@
         <v>83</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>85</v>
@@ -14129,16 +14146,16 @@
         <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14188,7 +14205,7 @@
         <v>85</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14209,10 +14226,10 @@
         <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14223,10 +14240,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14249,20 +14266,18 @@
         <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>611</v>
-      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>85</v>
       </c>
@@ -14310,7 +14325,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14331,10 +14346,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14345,10 +14360,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14359,7 +14374,7 @@
         <v>83</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>85</v>
@@ -14368,19 +14383,23 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>161</v>
+        <v>545</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>162</v>
+        <v>611</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
       </c>
@@ -14428,19 +14447,19 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>164</v>
+        <v>610</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>85</v>
@@ -14449,10 +14468,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>85</v>
+        <v>615</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>165</v>
+        <v>616</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14463,10 +14482,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14477,7 +14496,7 @@
         <v>83</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>85</v>
@@ -14489,13 +14508,13 @@
         <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14534,29 +14553,31 @@
         <v>85</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>85</v>
@@ -14568,7 +14589,7 @@
         <v>85</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>85</v>
@@ -14579,14 +14600,12 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
         <v>85</v>
       </c>
@@ -14595,7 +14614,7 @@
         <v>83</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>85</v>
@@ -14607,13 +14626,13 @@
         <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14652,16 +14671,14 @@
         <v>85</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>173</v>
@@ -14673,7 +14690,7 @@
         <v>84</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>147</v>
@@ -14688,7 +14705,7 @@
         <v>85</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>85</v>
@@ -14699,12 +14716,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>85</v>
       </c>
@@ -14725,13 +14744,13 @@
         <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14782,19 +14801,19 @@
         <v>85</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>85</v>
@@ -14806,7 +14825,7 @@
         <v>85</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>85</v>
@@ -14817,10 +14836,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14831,7 +14850,7 @@
         <v>83</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>85</v>
@@ -14843,13 +14862,13 @@
         <v>85</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14888,31 +14907,31 @@
         <v>85</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC104" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>85</v>
@@ -14924,7 +14943,7 @@
         <v>85</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>85</v>
@@ -14935,10 +14954,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14946,10 +14965,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>85</v>
@@ -14961,24 +14980,22 @@
         <v>85</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>85</v>
@@ -15008,31 +15025,31 @@
         <v>85</v>
       </c>
       <c r="AB105" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC105" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>85</v>
@@ -15044,7 +15061,7 @@
         <v>85</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>85</v>
@@ -15055,10 +15072,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15081,22 +15098,24 @@
         <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>238</v>
+        <v>110</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>85</v>
@@ -15138,10 +15157,10 @@
         <v>85</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>96</v>
@@ -15150,7 +15169,7 @@
         <v>85</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>85</v>
@@ -15173,46 +15192,42 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>553</v>
+        <v>85</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>554</v>
+        <v>192</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>85</v>
       </c>
@@ -15260,19 +15275,19 @@
         <v>85</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>556</v>
+        <v>194</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>85</v>
@@ -15295,45 +15310,45 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>85</v>
+        <v>556</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>285</v>
+        <v>141</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>627</v>
+        <v>557</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>628</v>
+        <v>558</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>629</v>
+        <v>171</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>85</v>
@@ -15358,13 +15373,13 @@
         <v>85</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>508</v>
+        <v>85</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>630</v>
+        <v>85</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>631</v>
+        <v>85</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>85</v>
@@ -15382,34 +15397,34 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>626</v>
+        <v>559</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>632</v>
+        <v>85</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>319</v>
+        <v>85</v>
       </c>
       <c r="AP108" t="s" s="2">
         <v>85</v>
@@ -15417,10 +15432,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15428,7 +15443,7 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>96</v>
@@ -15443,19 +15458,19 @@
         <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>424</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>426</v>
+        <v>631</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>85</v>
@@ -15480,32 +15495,34 @@
         <v>85</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>85</v>
+        <v>511</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>85</v>
+        <v>633</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>85</v>
+        <v>634</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AC109" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>96</v>
@@ -15520,31 +15537,29 @@
         <v>85</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>433</v>
+        <v>318</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>85</v>
+        <v>319</v>
       </c>
       <c r="AP109" t="s" s="2">
-        <v>434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>85</v>
       </c>
@@ -15565,16 +15580,16 @@
         <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>161</v>
+        <v>424</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>428</v>
@@ -15614,19 +15629,17 @@
         <v>85</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15644,7 +15657,7 @@
         <v>85</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>432</v>
@@ -15661,13 +15674,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>85</v>
@@ -15686,19 +15699,19 @@
         <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>439</v>
+        <v>161</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>440</v>
+        <v>637</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>442</v>
+        <v>638</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>428</v>
@@ -15750,7 +15763,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>83</v>
@@ -15759,39 +15772,39 @@
         <v>96</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>85</v>
+        <v>639</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D112" t="s" s="2">
         <v>85</v>
@@ -15810,19 +15823,19 @@
         <v>85</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>449</v>
+        <v>637</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>451</v>
+        <v>638</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>428</v>
@@ -15874,7 +15887,7 @@
         <v>85</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15883,39 +15896,39 @@
         <v>96</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>452</v>
+        <v>108</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>85</v>
+        <v>639</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>139</v>
+        <v>432</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>85</v>
@@ -15934,19 +15947,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>635</v>
+        <v>445</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>428</v>
@@ -15998,7 +16011,7 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16007,39 +16020,39 @@
         <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>108</v>
+        <v>446</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>636</v>
+        <v>85</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
@@ -16058,19 +16071,19 @@
         <v>85</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>634</v>
+        <v>452</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>635</v>
+        <v>454</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>428</v>
@@ -16122,7 +16135,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16131,39 +16144,39 @@
         <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>636</v>
+        <v>85</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>433</v>
+        <v>456</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>434</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
@@ -16185,16 +16198,16 @@
         <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>428</v>
@@ -16246,7 +16259,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16264,7 +16277,7 @@
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>432</v>
@@ -16281,13 +16294,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16306,19 +16319,19 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>466</v>
+        <v>637</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>468</v>
+        <v>638</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>428</v>
@@ -16370,7 +16383,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16379,39 +16392,39 @@
         <v>96</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>469</v>
+        <v>108</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>85</v>
+        <v>639</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16433,16 +16446,16 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>285</v>
+        <v>465</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>428</v>
@@ -16470,11 +16483,13 @@
         <v>85</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y117" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z117" t="s" s="2">
-        <v>474</v>
+        <v>85</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>85</v>
@@ -16492,7 +16507,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16510,7 +16525,7 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>432</v>
@@ -16527,12 +16542,14 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>467</v>
+      </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
       </c>
@@ -16553,19 +16570,19 @@
         <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>285</v>
+        <v>468</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>646</v>
+        <v>469</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>647</v>
+        <v>470</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>648</v>
+        <v>471</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>85</v>
@@ -16590,13 +16607,13 @@
         <v>85</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>343</v>
+        <v>85</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="Z118" t="s" s="2">
-        <v>481</v>
+        <v>85</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>85</v>
@@ -16614,7 +16631,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16623,10 +16640,10 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>482</v>
+        <v>158</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>108</v>
+        <v>472</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
@@ -16635,10 +16652,10 @@
         <v>85</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>139</v>
+        <v>473</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
@@ -16649,21 +16666,23 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="D119" t="s" s="2">
-        <v>485</v>
+        <v>85</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>85</v>
@@ -16672,22 +16691,22 @@
         <v>85</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>285</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>486</v>
+        <v>637</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>487</v>
+        <v>426</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>488</v>
+        <v>638</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>85</v>
@@ -16712,13 +16731,11 @@
         <v>85</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>490</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>85</v>
@@ -16736,13 +16753,13 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>85</v>
@@ -16754,27 +16771,27 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>492</v>
+        <v>639</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>494</v>
+        <v>433</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>495</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16785,7 +16802,7 @@
         <v>83</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>85</v>
@@ -16797,19 +16814,19 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>651</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>652</v>
       </c>
-      <c r="N120" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="O120" t="s" s="2">
-        <v>546</v>
+        <v>482</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16834,13 +16851,13 @@
         <v>85</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>85</v>
+        <v>343</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>85</v>
+        <v>484</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>85</v>
@@ -16858,16 +16875,16 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>85</v>
+        <v>485</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>108</v>
@@ -16879,15 +16896,259 @@
         <v>85</v>
       </c>
       <c r="AM120" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="N122" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="AN120" t="s" s="2">
+      <c r="O122" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AO120" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP120" t="s" s="2">
+      <c r="P122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>85</v>
       </c>
     </row>

--- a/ig/ch-lab-report/StructureDefinition-ChLab-observation-single-test.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ChLab-observation-single-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -480,7 +480,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -504,10 +508,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -738,7 +738,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1242,7 +1242,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1320,7 +1320,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1410,25 +1410,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1439,22 +1420,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1495,30 +1460,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2409,15 +2358,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2428,28 +2377,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3630,7 +3579,7 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>147</v>
@@ -3656,13 +3605,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>85</v>
@@ -3684,13 +3633,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3750,7 +3699,7 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>147</v>
@@ -6128,7 +6077,7 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>147</v>
@@ -6248,7 +6197,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>147</v>
@@ -6368,7 +6317,7 @@
         <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>147</v>
@@ -6428,7 +6377,7 @@
         <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6488,7 +6437,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>147</v>
@@ -10256,7 +10205,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>85</v>
@@ -11233,19 +11182,19 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>442</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>428</v>
@@ -11306,39 +11255,39 @@
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11357,19 +11306,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>428</v>
@@ -11430,39 +11379,39 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>455</v>
+        <v>108</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>139</v>
+        <v>432</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>85</v>
@@ -11484,7 +11433,7 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>425</v>
@@ -11580,13 +11529,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>85</v>
@@ -11608,7 +11557,7 @@
         <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>425</v>
@@ -11704,13 +11653,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>85</v>
@@ -11732,7 +11681,7 @@
         <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>425</v>
@@ -11828,13 +11777,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11853,19 +11802,19 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>469</v>
+        <v>425</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>471</v>
+        <v>427</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>428</v>
@@ -11926,39 +11875,39 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>472</v>
+        <v>108</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>85</v>
+        <v>431</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
@@ -11980,7 +11929,7 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>425</v>
@@ -12021,7 +11970,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12074,10 +12023,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12103,16 +12052,16 @@
         <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12140,10 +12089,10 @@
         <v>343</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12161,7 +12110,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12170,7 +12119,7 @@
         <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12185,7 +12134,7 @@
         <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
@@ -12196,14 +12145,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12225,16 +12174,16 @@
         <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12262,10 +12211,10 @@
         <v>343</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12283,7 +12232,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12301,27 +12250,27 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12344,19 +12293,19 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12405,7 +12354,7 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
@@ -12426,10 +12375,10 @@
         <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
@@ -12440,10 +12389,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12469,13 +12418,13 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12501,13 +12450,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12525,7 +12474,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12543,27 +12492,27 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12589,16 +12538,16 @@
         <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
@@ -12627,7 +12576,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12645,7 +12594,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12666,10 +12615,10 @@
         <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
@@ -12680,10 +12629,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12706,16 +12655,16 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12765,7 +12714,7 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12783,27 +12732,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12826,16 +12775,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12885,7 +12834,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -12903,27 +12852,27 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12946,19 +12895,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
@@ -13007,7 +12956,7 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -13019,7 +12968,7 @@
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13028,10 +12977,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13042,10 +12991,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13160,10 +13109,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13280,14 +13229,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13309,10 +13258,10 @@
         <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>171</v>
@@ -13367,7 +13316,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13402,10 +13351,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13428,13 +13377,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13485,7 +13434,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13494,7 +13443,7 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>108</v>
@@ -13506,10 +13455,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13520,10 +13469,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13546,13 +13495,13 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13603,7 +13552,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13612,7 +13561,7 @@
         <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>108</v>
@@ -13624,10 +13573,10 @@
         <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13638,10 +13587,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13667,16 +13616,16 @@
         <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13704,10 +13653,10 @@
         <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13725,7 +13674,7 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
@@ -13743,13 +13692,13 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13760,10 +13709,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13789,16 +13738,16 @@
         <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
@@ -13823,13 +13772,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13847,7 +13796,7 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
@@ -13865,13 +13814,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13882,10 +13831,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13908,17 +13857,17 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
@@ -13967,7 +13916,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -13991,7 +13940,7 @@
         <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14002,10 +13951,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14031,10 +13980,10 @@
         <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14085,7 +14034,7 @@
         <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14106,10 +14055,10 @@
         <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14120,10 +14069,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14146,16 +14095,16 @@
         <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14205,7 +14154,7 @@
         <v>85</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14226,10 +14175,10 @@
         <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14240,10 +14189,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14266,16 +14215,16 @@
         <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14325,7 +14274,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14346,10 +14295,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14360,10 +14309,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14386,19 +14335,19 @@
         <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
@@ -14447,7 +14396,7 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
@@ -14468,10 +14417,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14482,10 +14431,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14600,10 +14549,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14716,10 +14665,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>230</v>
@@ -14750,7 +14699,7 @@
         <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14810,7 +14759,7 @@
         <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>147</v>
@@ -14836,10 +14785,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14954,10 +14903,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15072,10 +15021,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15192,10 +15141,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15310,14 +15259,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15339,10 +15288,10 @@
         <v>141</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>171</v>
@@ -15397,7 +15346,7 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>83</v>
@@ -15432,10 +15381,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15461,13 +15410,13 @@
         <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>313</v>
@@ -15495,13 +15444,13 @@
         <v>85</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>85</v>
@@ -15519,7 +15468,7 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>96</v>
@@ -15537,7 +15486,7 @@
         <v>85</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>317</v>
@@ -15554,10 +15503,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15583,13 +15532,13 @@
         <v>424</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>428</v>
@@ -15639,7 +15588,7 @@
         <v>145</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15657,7 +15606,7 @@
         <v>85</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>432</v>
@@ -15674,10 +15623,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>436</v>
@@ -15705,13 +15654,13 @@
         <v>161</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>428</v>
@@ -15763,7 +15712,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>83</v>
@@ -15781,7 +15730,7 @@
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>432</v>
@@ -15798,10 +15747,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>438</v>
@@ -15829,13 +15778,13 @@
         <v>439</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>428</v>
@@ -15887,7 +15836,7 @@
         <v>85</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15905,7 +15854,7 @@
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>432</v>
@@ -15922,10 +15871,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>441</v>
@@ -15947,19 +15896,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>442</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>443</v>
+        <v>621</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>445</v>
+        <v>622</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>428</v>
@@ -16011,7 +15960,7 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16020,39 +15969,39 @@
         <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>446</v>
+        <v>108</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>85</v>
+        <v>623</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
@@ -16071,19 +16020,19 @@
         <v>85</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>452</v>
+        <v>621</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>454</v>
+        <v>622</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>428</v>
@@ -16135,7 +16084,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16144,39 +16093,39 @@
         <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>455</v>
+        <v>108</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>85</v>
+        <v>623</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>139</v>
+        <v>432</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
@@ -16198,16 +16147,16 @@
         <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>428</v>
@@ -16259,7 +16208,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16277,7 +16226,7 @@
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>432</v>
@@ -16294,13 +16243,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16322,16 +16271,16 @@
         <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>428</v>
@@ -16383,7 +16332,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16401,7 +16350,7 @@
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>432</v>
@@ -16418,13 +16367,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16446,16 +16395,16 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>428</v>
@@ -16507,7 +16456,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16525,7 +16474,7 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>432</v>
@@ -16542,13 +16491,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
@@ -16567,19 +16516,19 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>469</v>
+        <v>621</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>470</v>
+        <v>426</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>471</v>
+        <v>622</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>428</v>
@@ -16631,7 +16580,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16640,39 +16589,39 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>472</v>
+        <v>108</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>85</v>
+        <v>623</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>85</v>
@@ -16694,16 +16643,16 @@
         <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>285</v>
+        <v>460</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>428</v>
@@ -16735,7 +16684,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>85</v>
@@ -16753,7 +16702,7 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -16771,7 +16720,7 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>432</v>
@@ -16788,10 +16737,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16817,16 +16766,16 @@
         <v>285</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16854,10 +16803,10 @@
         <v>343</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>85</v>
@@ -16875,7 +16824,7 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
@@ -16884,7 +16833,7 @@
         <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>108</v>
@@ -16899,7 +16848,7 @@
         <v>139</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>85</v>
@@ -16910,14 +16859,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16939,16 +16888,16 @@
         <v>285</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>85</v>
@@ -16976,10 +16925,10 @@
         <v>343</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>85</v>
@@ -16997,7 +16946,7 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>83</v>
@@ -17015,27 +16964,27 @@
         <v>85</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17058,19 +17007,19 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>85</v>
@@ -17119,7 +17068,7 @@
         <v>85</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -17140,10 +17089,10 @@
         <v>85</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>85</v>

--- a/ig/ch-lab-report/StructureDefinition-ChLab-observation-single-test.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ChLab-observation-single-test.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -815,7 +815,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -927,7 +927,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1099,7 +1099,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1144,7 +1144,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1167,7 +1167,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1524,7 +1524,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1583,7 +1583,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1654,7 +1654,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1734,7 +1734,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1784,7 +1784,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1817,7 +1817,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1876,7 +1876,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR 